--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257851.5326871181</v>
+        <v>249923.0761545644</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6946490.649444264</v>
+        <v>6890191.21837175</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>22.56111637506435</v>
       </c>
       <c r="Y2" t="n">
-        <v>138.4324037192274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.43755362246768</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +825,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>109.4731500843525</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>24.37942348309186</v>
       </c>
       <c r="C5" t="n">
-        <v>230.2609081204704</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>203.2616017012387</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>174.3969772655382</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.13954148002296</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>130.6556207749491</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1385,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>163.2209990735473</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.8246366532809</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>233.349944037601</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>34.75529100421592</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1777,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>54.55340531488847</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>300.1582798780843</v>
       </c>
     </row>
     <row r="18">
@@ -2081,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2090,16 +2092,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>87.50755336022249</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,10 +2538,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>125.1716544454844</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
@@ -2719,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>47.61404849749811</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>90.06571353858833</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3082,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225841</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,10 +3717,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3752,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>45.91568880648644</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>136.0564930766995</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>780.6738439019889</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="C2" t="n">
-        <v>342.5313710854123</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="D2" t="n">
-        <v>342.5313710854123</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E2" t="n">
-        <v>342.5313710854123</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F2" t="n">
-        <v>342.5313710854123</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862857</v>
@@ -4370,10 +4372,10 @@
         <v>1339.647018150181</v>
       </c>
       <c r="X2" t="n">
-        <v>920.5045547294914</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="Y2" t="n">
-        <v>780.6738439019889</v>
+        <v>1316.858011710722</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="L3" t="n">
-        <v>397.8892067392438</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="M3" t="n">
-        <v>397.8892067392438</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="N3" t="n">
-        <v>397.8892067392438</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392438</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>871.2377163984103</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C4" t="n">
-        <v>871.2377163984103</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>734.8406085551388</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862855</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>714.2722113715439</v>
+        <v>487.5927507431934</v>
       </c>
       <c r="C5" t="n">
-        <v>481.6854354922808</v>
+        <v>487.5927507431934</v>
       </c>
       <c r="D5" t="n">
-        <v>481.6854354922808</v>
+        <v>487.5927507431934</v>
       </c>
       <c r="E5" t="n">
-        <v>481.6854354922808</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
         <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>2471.176067606882</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>2471.176067606882</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4595,22 +4597,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U5" t="n">
-        <v>2327.186649932281</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V5" t="n">
-        <v>1964.569699866108</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W5" t="n">
-        <v>1559.714245277141</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X5" t="n">
-        <v>1140.571781856452</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y5" t="n">
-        <v>1140.571781856452</v>
+        <v>512.2184310291448</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4640,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N6" t="n">
-        <v>1375.081325612185</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
@@ -4750,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2634.504334502149</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1214.448588743694</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C8" t="n">
-        <v>776.3061159271172</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D8" t="n">
-        <v>776.3061159271172</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E8" t="n">
-        <v>342.5313710854123</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
@@ -4808,46 +4810,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V8" t="n">
-        <v>2464.746077238257</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W8" t="n">
-        <v>2059.890622649291</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.748159228602</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y8" t="n">
-        <v>1640.748159228602</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4893,13 +4895,13 @@
         <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>790.1610481280939</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>617.5993366113188</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>451.7213438128414</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885377</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2538.085451911278</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2292.206005489733</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2013.773004742838</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1726.817496613269</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1454.79109219956</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1209.399337532973</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>981.979666847081</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.576262321712</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.576262321712</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="D11" t="n">
-        <v>882.6664774961569</v>
+        <v>1047.536173530043</v>
       </c>
       <c r="E11" t="n">
-        <v>882.6664774961569</v>
+        <v>1047.536173530043</v>
       </c>
       <c r="F11" t="n">
-        <v>454.7990479053647</v>
+        <v>619.6687439392508</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862856</v>
+        <v>218.2709125625147</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K11" t="n">
-        <v>1149.495958523325</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L11" t="n">
-        <v>1149.495958523325</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.495958523325</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.495958523325</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O11" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112559</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5072,19 +5074,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U11" t="n">
-        <v>2508.621799508922</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V11" t="n">
-        <v>2146.004849442748</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W11" t="n">
-        <v>2146.004849442748</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X11" t="n">
-        <v>1726.862386022059</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y11" t="n">
-        <v>1318.576262321712</v>
+        <v>1483.445958355599</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5114,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I12" t="n">
         <v>79.46488968908616</v>
@@ -5121,25 +5123,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P12" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q12" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R12" t="n">
         <v>1716.640978007438</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C13" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D13" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E13" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F13" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G13" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5221,28 +5223,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T13" t="n">
-        <v>2402.763558715255</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U13" t="n">
-        <v>2356.071333755254</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V13" t="n">
-        <v>2069.115825625685</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W13" t="n">
-        <v>1797.089421211977</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X13" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y13" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1824.618792525831</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="C14" t="n">
-        <v>1386.476319709254</v>
+        <v>1407.920435605196</v>
       </c>
       <c r="D14" t="n">
-        <v>950.5665348836988</v>
+        <v>1407.920435605196</v>
       </c>
       <c r="E14" t="n">
-        <v>516.7917900419939</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F14" t="n">
-        <v>88.92436045120161</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L14" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M14" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N14" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O14" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5315,13 +5317,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W14" t="n">
-        <v>2670.060826431428</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X14" t="n">
-        <v>2250.918363010739</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y14" t="n">
-        <v>2250.918363010739</v>
+        <v>1846.062908421772</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5351,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
@@ -5358,19 +5360,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
         <v>1058.729261281022</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>922.1364226482442</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C16" t="n">
-        <v>749.5747111314691</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D16" t="n">
-        <v>583.6967183329918</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E16" t="n">
-        <v>413.9387145837291</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F16" t="n">
-        <v>237.2316605454853</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G16" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5461,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T16" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U16" t="n">
-        <v>2145.748379262989</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V16" t="n">
-        <v>1858.792871133419</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W16" t="n">
-        <v>1586.766466719711</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X16" t="n">
-        <v>1341.374712053123</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.955041367231</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1416.332668825484</v>
+        <v>1180.255776660564</v>
       </c>
       <c r="C17" t="n">
-        <v>978.1901960089076</v>
+        <v>1180.255776660564</v>
       </c>
       <c r="D17" t="n">
-        <v>542.280411183352</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E17" t="n">
-        <v>108.5056663416472</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40121652862856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
         <v>488.6559039815464</v>
@@ -5519,22 +5521,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M17" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N17" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O17" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5549,16 +5551,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W17" t="n">
-        <v>2670.060826431428</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X17" t="n">
-        <v>2250.918363010739</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y17" t="n">
-        <v>1842.632239310392</v>
+        <v>1180.255776660564</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N18" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O18" t="n">
-        <v>714.2412710704069</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R18" t="n">
         <v>1716.640978007438</v>
@@ -5662,13 +5664,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>575.5674294109622</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>141.7926845692573</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6217,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H26" t="n">
         <v>102.6776296436396</v>
@@ -6224,31 +6226,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>228.524776110223</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1303.584742363082</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2460.632577573633</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3586.36356101008</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
         <v>5029.390139722817</v>
@@ -6367,13 +6369,13 @@
         <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6452,7 +6454,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436396</v>
@@ -6464,31 +6466,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>605.8694973157614</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1680.929463568621</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.977298779172</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>3963.708282215619</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785925</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
         <v>4809.322912595856</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H32" t="n">
         <v>102.6776296436396</v>
@@ -6698,34 +6700,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
         <v>4809.322912595856</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6886,22 +6888,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6923,37 +6925,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740236</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740236</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3365.117609755799</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>3192.555898239023</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>3026.677905440546</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>2856.919901691283</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>2680.21284765304</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>2514.621572678867</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>4867.162567117437</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>4588.729566370543</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>4301.774058240973</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>4029.747653827265</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>3784.355899160677</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>3556.936228474786</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,25 +7183,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7363,19 +7365,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7409,52 +7411,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.095648603258</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1350.953175786681</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>915.0433909611256</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>481.2686461194208</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>53.40121652862856</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862856</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862856</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L44" t="n">
-        <v>714.2412710704069</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M44" t="n">
-        <v>1375.081325612185</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N44" t="n">
-        <v>2035.921380153963</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O44" t="n">
-        <v>2670.060826431428</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P44" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2670.060826431428</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2623.681342788512</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2215.395219088166</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>404.0232146552985</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1041.328054693135</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>868.76634317636</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>702.8883503778827</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>533.1303466286199</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>356.4232925903761</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>190.8320176162038</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933183</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.7393562644539</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.949238032415</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370972</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2510.819457729424</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.94001130788</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2264.94001130788</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1977.98450317831</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1705.958098764602</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.566344098014</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1233.146673412122</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>540.0049805212329</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8389,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8456,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8771,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,7 +9169,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O18" t="n">
-        <v>667.515206607857</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P18" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,22 +9403,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9650,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>127.5393291307509</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>508.6956131767492</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10127,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>263.087760665011</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10829,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>667.515206607857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>667.5152066078568</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>667.5152066078567</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>640.5448952297625</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -22547,25 +22549,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>392.3899224114181</v>
       </c>
       <c r="Y2" t="n">
-        <v>265.7708587441157</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.4628789093296</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -22711,7 +22713,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>58.58727362741759</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22781,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>397.6571512969668</v>
       </c>
       <c r="C5" t="n">
-        <v>203.5001399679405</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22835,7 +22837,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,10 +22992,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>155.729178864273</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>229.8062851978049</v>
       </c>
     </row>
     <row r="9">
@@ -23188,16 +23190,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444076</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>26.99333424003424</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>123.0178539376686</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23312,19 +23314,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>96.80544300287241</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>196.0870533556868</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>362.6285620587528</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>369.0353499799959</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,16 +23791,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>104.0449825852588</v>
       </c>
     </row>
     <row r="18">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>336.0812019346619</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>120.446375214272</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>135.0797604404445</v>
       </c>
     </row>
     <row r="32">
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142708</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.0353499799959</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.446659489829727</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,13 +26073,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474154.3850228154</v>
+        <v>474154.3850228153</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474154.3850228152</v>
+        <v>474154.3850228154</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474154.3850228153</v>
+        <v>474154.3850228154</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474154.3850228153</v>
+        <v>474154.3850228154</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738670.3520973983</v>
+        <v>474154.3850228153</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738670.3520973981</v>
+        <v>738670.3520973983</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738670.3520973983</v>
+        <v>738670.3520973981</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738670.3520973983</v>
+        <v>738670.3520973981</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738670.3520973983</v>
+        <v>738670.3520973981</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>474154.3850228152</v>
+        <v>738670.3520973983</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>152186.0528060574</v>
       </c>
       <c r="C2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="D2" t="n">
         <v>152186.0528060574</v>
@@ -26326,34 +26328,34 @@
         <v>152186.0528060574</v>
       </c>
       <c r="G2" t="n">
+        <v>152186.0528060574</v>
+      </c>
+      <c r="H2" t="n">
         <v>152186.0528060573</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>237085.9128618085</v>
       </c>
-      <c r="I2" t="n">
-        <v>237085.9128618086</v>
-      </c>
       <c r="J2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="K2" t="n">
         <v>237085.9128618086</v>
       </c>
       <c r="L2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="M2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="N2" t="n">
         <v>237085.9128618086</v>
       </c>
       <c r="O2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="P2" t="n">
-        <v>152186.0528060573</v>
+        <v>237085.9128618085</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>162410.0000642068</v>
       </c>
       <c r="J3" t="n">
         <v>174651.3487177062</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35023.37484795162</v>
+        <v>35023.37484795161</v>
       </c>
       <c r="C4" t="n">
         <v>35023.37484795162</v>
       </c>
       <c r="D4" t="n">
+        <v>35023.37484795162</v>
+      </c>
+      <c r="E4" t="n">
+        <v>35023.37484795162</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35023.37484795162</v>
+      </c>
+      <c r="G4" t="n">
         <v>35023.37484795161</v>
       </c>
-      <c r="E4" t="n">
-        <v>35023.37484795161</v>
-      </c>
-      <c r="F4" t="n">
-        <v>35023.37484795161</v>
-      </c>
-      <c r="G4" t="n">
-        <v>35023.37484795162</v>
-      </c>
       <c r="H4" t="n">
+        <v>35023.37484795163</v>
+      </c>
+      <c r="I4" t="n">
+        <v>54561.82510962277</v>
+      </c>
+      <c r="J4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>54561.82510962275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54561.82510962275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="N4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="N4" t="n">
-        <v>54561.82510962277</v>
       </c>
       <c r="O4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>35023.37484795162</v>
+        <v>54561.82510962275</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,25 +26524,25 @@
         <v>-180749.5451876968</v>
       </c>
       <c r="C6" t="n">
-        <v>42950.153396348</v>
+        <v>42950.15339634802</v>
       </c>
       <c r="D6" t="n">
-        <v>42950.15339634805</v>
+        <v>42950.15339634802</v>
       </c>
       <c r="E6" t="n">
-        <v>76577.75339634807</v>
+        <v>76577.75339634802</v>
       </c>
       <c r="F6" t="n">
+        <v>76577.75339634802</v>
+      </c>
+      <c r="G6" t="n">
         <v>76577.75339634804</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>76577.75339634798</v>
       </c>
-      <c r="H6" t="n">
-        <v>-59978.72863168226</v>
-      </c>
       <c r="I6" t="n">
-        <v>104805.8491463933</v>
+        <v>-57604.15091781356</v>
       </c>
       <c r="J6" t="n">
         <v>-69845.49957131289</v>
@@ -26561,7 +26563,7 @@
         <v>104805.8491463933</v>
       </c>
       <c r="P6" t="n">
-        <v>76577.75339634798</v>
+        <v>104805.8491463933</v>
       </c>
     </row>
   </sheetData>
@@ -26790,22 +26792,22 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="J4" t="n">
         <v>667.5152066078571</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>540.0049805212329</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35102,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35176,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35887,7 +35889,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O18" t="n">
-        <v>667.515206607857</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P18" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36370,16 +36372,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>127.5393291307509</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>508.6956131767492</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36847,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>263.087760665011</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>667.515206607857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>667.5152066078568</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N44" t="n">
-        <v>667.5152066078567</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>640.5448952297625</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>249923.0761545644</v>
+        <v>247125.2297936015</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937635</v>
+        <v>18249983.41937636</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129927</v>
+        <v>3650026.315129925</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>172.517814767016</v>
       </c>
       <c r="X2" t="n">
-        <v>22.56111637506435</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>109.4731500843525</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -867,19 +867,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>157.8824880649888</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.37942348309186</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>196.877147988276</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1110,10 +1110,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.6138039829415</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>174.3969772655382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>130.6556207749491</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1378,16 +1378,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>163.2209990735473</v>
+        <v>127.7714923229622</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>233.349944037601</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>149.0244198570056</v>
       </c>
     </row>
     <row r="15">
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>42.35923068573597</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1909,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>300.1582798780843</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>43.48898701015896</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>87.50755336022249</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>190.0522089046591</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225719</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2857,7 +2857,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.06571353858833</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225719</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -4030,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1316.858011710722</v>
+        <v>1650.358373569249</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.858011710722</v>
+        <v>1212.215900752673</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.858011710722</v>
+        <v>776.3061159271172</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739147</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.647018150181</v>
+        <v>2495.800407474846</v>
       </c>
       <c r="X2" t="n">
-        <v>1316.858011710722</v>
+        <v>2076.657944054157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1316.858011710722</v>
+        <v>2076.657944054157</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>2552.888048337089</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>2552.888048337089</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2552.888048337089</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>900.7186013536161</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>900.7186013536161</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>734.8406085551388</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
         <v>624.2616690759949</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>2124.330557968361</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.375049838791</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W4" t="n">
-        <v>1565.348645425083</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1319.956890758495</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1092.537220072603</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>487.5927507431934</v>
+        <v>1116.04423699374</v>
       </c>
       <c r="C5" t="n">
-        <v>487.5927507431934</v>
+        <v>1116.04423699374</v>
       </c>
       <c r="D5" t="n">
-        <v>487.5927507431934</v>
+        <v>680.1344521681845</v>
       </c>
       <c r="E5" t="n">
-        <v>53.81800590148856</v>
+        <v>680.1344521681845</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148856</v>
+        <v>252.2670225773922</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862857</v>
@@ -4573,13 +4573,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4600,19 +4600,19 @@
         <v>2366.341725488304</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.119422805321</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739147</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.647018150181</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X5" t="n">
-        <v>920.5045547294914</v>
+        <v>1542.343807478648</v>
       </c>
       <c r="Y5" t="n">
-        <v>512.2184310291448</v>
+        <v>1542.343807478648</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.8950539462408</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>590.3333424294657</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>424.4553496309884</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>254.6973458817257</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>77.99029184348186</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862857</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862857</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431416</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.13334335112</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.7136726652279</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>744.3459918350084</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="C8" t="n">
-        <v>744.3459918350084</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>744.3459918350084</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>744.3459918350084</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862857</v>
@@ -4810,13 +4810,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4843,13 +4843,13 @@
         <v>1744.502472739147</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.647018150181</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294914</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="Y8" t="n">
-        <v>744.3459918350084</v>
+        <v>1744.502472739147</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>790.1610481280939</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>617.5993366113188</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>451.7213438128414</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>281.9633400635787</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862857</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2538.085451911278</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2292.206005489733</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>2013.773004742838</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1726.817496613269</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1454.79109219956</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1209.399337532973</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>981.979666847081</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1483.445958355599</v>
+        <v>1480.015289244219</v>
       </c>
       <c r="C11" t="n">
-        <v>1483.445958355599</v>
+        <v>1480.015289244219</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.536173530043</v>
+        <v>1044.105504418663</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.536173530043</v>
+        <v>610.3307595769584</v>
       </c>
       <c r="F11" t="n">
-        <v>619.6687439392508</v>
+        <v>182.4633299861661</v>
       </c>
       <c r="G11" t="n">
-        <v>218.2709125625147</v>
+        <v>182.4633299861661</v>
       </c>
       <c r="H11" t="n">
         <v>53.40121652862857</v>
@@ -5041,28 +5041,28 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M11" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N11" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O11" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>2035.921380153964</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q11" t="n">
-        <v>2582.420166112559</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5080,13 +5080,13 @@
         <v>2307.443876365255</v>
       </c>
       <c r="W11" t="n">
-        <v>1902.588421776288</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="X11" t="n">
-        <v>1483.445958355599</v>
+        <v>1888.301412944566</v>
       </c>
       <c r="Y11" t="n">
-        <v>1483.445958355599</v>
+        <v>1480.015289244219</v>
       </c>
     </row>
     <row r="12">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C13" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D13" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E13" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F13" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G13" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H13" t="n">
         <v>53.40121652862857</v>
@@ -5226,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T13" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U13" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V13" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W13" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X13" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1846.062908421772</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C14" t="n">
-        <v>1407.920435605196</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D14" t="n">
-        <v>1407.920435605196</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E14" t="n">
-        <v>1172.213421425801</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F14" t="n">
-        <v>744.3459918350084</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G14" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H14" t="n">
         <v>53.81800590148856</v>
@@ -5278,52 +5278,52 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K14" t="n">
-        <v>1149.495958523325</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L14" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M14" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N14" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V14" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="W14" t="n">
-        <v>2265.205371842461</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="X14" t="n">
-        <v>1846.062908421772</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="Y14" t="n">
-        <v>1846.062908421772</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="15">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.8950539462408</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C16" t="n">
-        <v>590.3333424294657</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D16" t="n">
-        <v>424.4553496309884</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E16" t="n">
-        <v>254.6973458817257</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F16" t="n">
-        <v>77.99029184348186</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H16" t="n">
         <v>53.40121652862857</v>
@@ -5463,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.94001130788</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U16" t="n">
-        <v>1986.507010560985</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V16" t="n">
-        <v>1699.551502431416</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W16" t="n">
-        <v>1427.525098017707</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.13334335112</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y16" t="n">
-        <v>954.7136726652279</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1180.255776660564</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="C17" t="n">
-        <v>1180.255776660564</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="D17" t="n">
-        <v>744.3459918350084</v>
+        <v>888.5737927470695</v>
       </c>
       <c r="E17" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F17" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G17" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H17" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L17" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M17" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N17" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O17" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365255</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W17" t="n">
-        <v>1902.588421776288</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X17" t="n">
-        <v>1483.445958355599</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y17" t="n">
-        <v>1180.255776660564</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L18" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M18" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N18" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O18" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P18" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R18" t="n">
         <v>1716.640978007438</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C19" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D19" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F19" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862857</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862857</v>
+        <v>97.32948623585983</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5700,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T19" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U19" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V19" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W19" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X19" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y19" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1011.477214236518</v>
+        <v>1361.228219012466</v>
       </c>
       <c r="C20" t="n">
-        <v>1011.477214236518</v>
+        <v>923.0857461958889</v>
       </c>
       <c r="D20" t="n">
-        <v>575.5674294109622</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E20" t="n">
-        <v>141.7926845692573</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
         <v>488.6559039815464</v>
@@ -5770,34 +5770,34 @@
         <v>1810.336013065103</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V20" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W20" t="n">
-        <v>2265.205371842461</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X20" t="n">
-        <v>1846.062908421772</v>
+        <v>1769.514342712812</v>
       </c>
       <c r="Y20" t="n">
-        <v>1437.776784721425</v>
+        <v>1361.228219012466</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
         <v>79.46488968908616</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C22" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D22" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5937,25 +5937,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T22" t="n">
-        <v>2634.504334502149</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U22" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V22" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W22" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X22" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y22" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5992,16 +5992,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
         <v>3569.079287993933</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6235,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6454,7 +6454,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436396</v>
@@ -6463,46 +6463,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.781058858859</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>754.2193473420839</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.599677577846</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6928,7 +6928,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6937,37 +6937,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912873</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,43 +7183,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7411,34 +7411,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
         <v>4809.322912595856</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
         <v>2090.757574835212</v>
@@ -7639,7 +7639,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7651,49 +7651,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>540.0049805212329</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8221,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.5152066078572</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8458,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.5152066078572</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>667.5152066078572</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P14" t="n">
         <v>667.5152066078572</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L17" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>145.5272350047208</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11299,25 +11299,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>228.289085276061</v>
       </c>
       <c r="X2" t="n">
-        <v>392.3899224114181</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22707,13 +22707,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>58.58727362741759</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22755,19 +22755,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>111.4236523045826</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>397.6571512969668</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>200.5067050746927</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,10 +22840,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22956,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22998,10 +22998,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23023,25 +23023,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>44.14724410546938</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>229.8062851978049</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23190,16 +23190,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>26.99333424003424</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>123.0178539376686</v>
+        <v>158.4673606882537</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>196.0870533556868</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -23557,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>255.1788426063375</v>
       </c>
     </row>
     <row r="15">
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23737,10 +23737,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>389.191456291564</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>104.0449825852588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>44.28436272291246</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>336.0812019346619</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>224.8988298818233</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.446375214272</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.0797604404445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.446375214272</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474154.3850228153</v>
+        <v>474154.3850228154</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474154.3850228154</v>
+        <v>474154.3850228153</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>474154.3850228153</v>
+        <v>474154.3850228154</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738670.3520973983</v>
+        <v>738670.3520973981</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738670.3520973983</v>
+        <v>738670.3520973981</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738670.3520973981</v>
+        <v>738670.3520973983</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738670.3520973981</v>
+        <v>738670.3520973983</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738670.3520973983</v>
+        <v>738670.3520973981</v>
       </c>
     </row>
   </sheetData>
@@ -26328,7 +26328,7 @@
         <v>152186.0528060574</v>
       </c>
       <c r="G2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="H2" t="n">
         <v>152186.0528060573</v>
@@ -26346,16 +26346,16 @@
         <v>237085.9128618085</v>
       </c>
       <c r="M2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="N2" t="n">
         <v>237085.9128618086</v>
       </c>
       <c r="O2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="P2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>162410.0000642068</v>
+        <v>162410.0000642069</v>
       </c>
       <c r="J3" t="n">
         <v>174651.3487177062</v>
@@ -26435,31 +26435,31 @@
         <v>35023.37484795161</v>
       </c>
       <c r="H4" t="n">
-        <v>35023.37484795163</v>
+        <v>35023.37484795162</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="O4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-180749.5451876968</v>
+        <v>-181244.4354162781</v>
       </c>
       <c r="C6" t="n">
-        <v>42950.15339634802</v>
+        <v>42455.26316776676</v>
       </c>
       <c r="D6" t="n">
-        <v>42950.15339634802</v>
+        <v>42455.26316776676</v>
       </c>
       <c r="E6" t="n">
-        <v>76577.75339634802</v>
+        <v>76082.86316776677</v>
       </c>
       <c r="F6" t="n">
-        <v>76577.75339634802</v>
+        <v>76082.86316776677</v>
       </c>
       <c r="G6" t="n">
-        <v>76577.75339634804</v>
+        <v>76082.86316776674</v>
       </c>
       <c r="H6" t="n">
-        <v>76577.75339634798</v>
+        <v>76082.86316776674</v>
       </c>
       <c r="I6" t="n">
-        <v>-57604.15091781356</v>
+        <v>-57627.37525719632</v>
       </c>
       <c r="J6" t="n">
-        <v>-69845.49957131289</v>
+        <v>-69868.72391069555</v>
       </c>
       <c r="K6" t="n">
-        <v>104805.8491463933</v>
+        <v>104782.6248070106</v>
       </c>
       <c r="L6" t="n">
-        <v>104805.8491463933</v>
+        <v>104782.6248070106</v>
       </c>
       <c r="M6" t="n">
-        <v>104805.8491463933</v>
+        <v>104782.6248070107</v>
       </c>
       <c r="N6" t="n">
-        <v>104805.8491463933</v>
+        <v>104782.6248070107</v>
       </c>
       <c r="O6" t="n">
-        <v>104805.8491463933</v>
+        <v>104782.6248070106</v>
       </c>
       <c r="P6" t="n">
-        <v>104805.8491463933</v>
+        <v>104782.6248070107</v>
       </c>
     </row>
   </sheetData>
@@ -26804,10 +26804,10 @@
         <v>667.5152066078571</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="J4" t="n">
         <v>667.5152066078571</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34777,10 +34777,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>540.0049805212329</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34941,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.5152066078572</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35178,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.5152066078572</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>667.5152066078572</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P14" t="n">
         <v>667.5152066078572</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L17" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36135,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>145.5272350047208</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36360,19 +36360,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38019,25 +38019,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
